--- a/reports/test.xlsx
+++ b/reports/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Minning\code\minning\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA01B08-ECF7-4243-8175-5280EC6522D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652BDCEC-CACB-452B-8C82-25BEEEF14389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Marl</t>
   </si>
   <si>
-    <t>stone</t>
-  </si>
-  <si>
-    <t>phospahte</t>
-  </si>
-  <si>
     <t>Number of days</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>Mud/shale/clay</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Phospahte</t>
   </si>
 </sst>
 </file>
@@ -371,7 +371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -381,7 +383,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1">
         <v>1143000</v>
@@ -397,7 +399,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>249800</v>
@@ -405,7 +407,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>112700</v>
@@ -413,7 +415,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>300</v>
@@ -421,7 +423,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -429,7 +431,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -443,7 +445,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -457,7 +459,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>10</v>
